--- a/rhla_analysis/rhla1_3_normal_result/k10.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k10.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005805598381655377</v>
+        <v>0.005805598381655396</v>
       </c>
       <c r="B2" t="n">
         <v>0.9822961807042067</v>
@@ -466,12 +466,12 @@
         <v>0.2003410059676044</v>
       </c>
       <c r="D2" t="n">
-        <v>169.1980939997644</v>
+        <v>169.1980939997639</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01726059010226381</v>
+        <v>0.01726059010226371</v>
       </c>
       <c r="B3" t="n">
         <v>0.9792667870611196</v>
@@ -480,12 +480,12 @@
         <v>0.1965046888320546</v>
       </c>
       <c r="D3" t="n">
-        <v>56.73425886712203</v>
+        <v>56.73425886712236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.007272812517976576</v>
+        <v>0.007272812517976597</v>
       </c>
       <c r="B4" t="n">
         <v>0.9798023648032796</v>
@@ -494,12 +494,12 @@
         <v>0.1977834612105712</v>
       </c>
       <c r="D4" t="n">
-        <v>134.7212460628475</v>
+        <v>134.7212460628471</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01069525638524724</v>
+        <v>0.01069525638524732</v>
       </c>
       <c r="B5" t="n">
         <v>1.007200478566374</v>
@@ -508,12 +508,12 @@
         <v>0.1990622335890878</v>
       </c>
       <c r="D5" t="n">
-        <v>94.17263525871901</v>
+        <v>94.17263525871836</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.006297366378267044</v>
+        <v>0.006297366378267033</v>
       </c>
       <c r="B6" t="n">
         <v>1.000507241172203</v>
@@ -522,12 +522,12 @@
         <v>0.2028985507246377</v>
       </c>
       <c r="D6" t="n">
-        <v>158.8770894171049</v>
+        <v>158.8770894171051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01172912237180928</v>
+        <v>0.01172912237180923</v>
       </c>
       <c r="B7" t="n">
         <v>1.020538593693117</v>
@@ -536,12 +536,12 @@
         <v>0.20076726342711</v>
       </c>
       <c r="D7" t="n">
-        <v>87.00894758724336</v>
+        <v>87.0089475872437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0161841594537133</v>
+        <v>0.01618415945371343</v>
       </c>
       <c r="B8" t="n">
         <v>1.001773866634703</v>
@@ -550,12 +550,12 @@
         <v>0.2092924126172208</v>
       </c>
       <c r="D8" t="n">
-        <v>61.8984179870309</v>
+        <v>61.89841798703038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004557526489661895</v>
+        <v>0.004557526489661822</v>
       </c>
       <c r="B9" t="n">
         <v>1.008258717997328</v>
@@ -564,7 +564,7 @@
         <v>0.1965046888320546</v>
       </c>
       <c r="D9" t="n">
-        <v>221.2293708625546</v>
+        <v>221.2293708625582</v>
       </c>
     </row>
     <row r="10">
@@ -572,18 +572,18 @@
         <v>0.01383841258211005</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9954687300133774</v>
+        <v>0.9954687300133775</v>
       </c>
       <c r="C10" t="n">
         <v>0.2148337595907928</v>
       </c>
       <c r="D10" t="n">
-        <v>71.93518216824189</v>
+        <v>71.93518216824194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.007857354236159384</v>
+        <v>0.007857354236159313</v>
       </c>
       <c r="B11" t="n">
         <v>1.006907966131529</v>
@@ -592,7 +592,7 @@
         <v>0.2028985507246377</v>
       </c>
       <c r="D11" t="n">
-        <v>128.1484754114507</v>
+        <v>128.1484754114519</v>
       </c>
     </row>
   </sheetData>
